--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406718.8852825841</v>
+        <v>336396.3048630668</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11391437.76547035</v>
+        <v>11512539.900382</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10676351.96705205</v>
+        <v>10361893.43952979</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8096213.398164084</v>
+        <v>8239106.155279132</v>
       </c>
     </row>
     <row r="11">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.396723986041543</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>179.9896253540989</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>234.1055905923163</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>246.336074505891</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>103.2588014327187</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>96.54255067792938</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>63.47200681233995</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3343964518637</v>
       </c>
       <c r="H15" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>127.8641746223057</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>55.94174219837174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>194.6624603617375</v>
@@ -1821,7 +1821,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>344.8038896288669</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>7.692555326864462</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.045250128462</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H18" t="n">
-        <v>92.83156789269742</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
         <v>20.22295923705012</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>20.52949037814328</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>133.1917384473988</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>73.09793466719498</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>131.3650554037519</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705085</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>79.41653965146601</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>66.4005512133147</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>109.9412122537105</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>167.4147487899566</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>218.6685340677058</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>69.63957399764172</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>141.4496899742593</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>278.8853048979431</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H27" t="n">
-        <v>92.83156789269698</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
         <v>20.22295923705012</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>220.9690625644696</v>
+        <v>176.1146791460092</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>150.4956237421371</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>179.4336257791598</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>59.02765416819912</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>190.5392292102082</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>146.9246168289006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>206.8582527646973</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>79.26950464462796</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
@@ -3246,13 +3246,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>198.4578201877294</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>186.3681208036413</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>37.30988802755619</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
         <v>251.045250128462</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>138.3296326902952</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>110.3838034696614</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>54.76617002523627</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>228.1484710990464</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705085</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>76.00777756309087</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>65.5492376782931</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>212.5820731195838</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>163.7436356182085</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>85.45564210299004</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.61164040205009</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>299.5705435540024</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>79.67162425289665</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>176.158105809041</v>
       </c>
       <c r="T46" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>170.9812334109295</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400.3029543659133</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400.3029543659133</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>589.7227393823981</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>465.2530182692153</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>650.9033495638721</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>652.2303032981987</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2228.89447953245</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C11" t="n">
-        <v>1992.424186004858</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D11" t="n">
-        <v>1634.158487398107</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E11" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F11" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G11" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H11" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5068,25 +5068,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T11" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U11" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V11" t="n">
-        <v>2228.89447953245</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W11" t="n">
-        <v>2228.89447953245</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X11" t="n">
-        <v>2228.89447953245</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y11" t="n">
-        <v>2228.89447953245</v>
+        <v>877.9374416333219</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500113</v>
+        <v>143.6627691908467</v>
       </c>
       <c r="K12" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L12" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M12" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O12" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P12" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q12" t="n">
         <v>2538.001278676482</v>
@@ -5153,16 +5153,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C13" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D13" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E13" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F13" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G13" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J13" t="n">
         <v>76.71595955312198</v>
@@ -5214,10 +5214,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
@@ -5229,22 +5229,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1636.446120074497</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="U13" t="n">
-        <v>1636.446120074497</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="V13" t="n">
-        <v>1636.446120074497</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="W13" t="n">
-        <v>1636.446120074497</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X13" t="n">
-        <v>1490.124203461141</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y13" t="n">
-        <v>1269.331624317611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1634.158487398107</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C14" t="n">
-        <v>1634.158487398107</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="D14" t="n">
-        <v>1634.158487398107</v>
+        <v>559.7504193151151</v>
       </c>
       <c r="E14" t="n">
-        <v>1248.370234799863</v>
+        <v>559.7504193151151</v>
       </c>
       <c r="F14" t="n">
-        <v>837.3843300102556</v>
+        <v>148.7645145255075</v>
       </c>
       <c r="G14" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H14" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I14" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K14" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
@@ -5308,22 +5308,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T14" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U14" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V14" t="n">
-        <v>2373.526982732343</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W14" t="n">
-        <v>2020.758327462229</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X14" t="n">
-        <v>2020.758327462229</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y14" t="n">
-        <v>2020.758327462229</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G15" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
         <v>51.24678656800311</v>
@@ -5360,25 +5360,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>684.9695361605189</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L15" t="n">
-        <v>979.6730931919907</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M15" t="n">
-        <v>1342.935112151211</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N15" t="n">
-        <v>1730.220240748156</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O15" t="n">
-        <v>2062.290675924318</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P15" t="n">
-        <v>2309.473409756615</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R15" t="n">
         <v>2562.339328400155</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>825.137147448514</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C16" t="n">
-        <v>825.137147448514</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D16" t="n">
         <v>768.6303371471284</v>
@@ -5430,22 +5430,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I16" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
@@ -5460,28 +5460,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T16" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U16" t="n">
-        <v>825.137147448514</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V16" t="n">
-        <v>825.137147448514</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W16" t="n">
-        <v>825.137147448514</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="X16" t="n">
-        <v>825.137147448514</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="Y16" t="n">
-        <v>825.137147448514</v>
+        <v>1216.838891429094</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>466.9515368437143</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C17" t="n">
-        <v>466.9515368437143</v>
+        <v>757.7992423756293</v>
       </c>
       <c r="D17" t="n">
-        <v>466.9515368437143</v>
+        <v>399.5335437688788</v>
       </c>
       <c r="E17" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F17" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872921</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O17" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T17" t="n">
-        <v>2554.569070494233</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U17" t="n">
-        <v>2300.988009758412</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V17" t="n">
-        <v>1969.925122414842</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W17" t="n">
-        <v>1617.156467144728</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X17" t="n">
-        <v>1243.690708883648</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y17" t="n">
-        <v>853.5513769078361</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E18" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>302.144689175691</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J18" t="n">
-        <v>143.6627691908478</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K18" t="n">
-        <v>590.2049751143506</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L18" t="n">
-        <v>884.9085321458224</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M18" t="n">
-        <v>1248.170551105042</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N18" t="n">
-        <v>1635.455679701988</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O18" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P18" t="n">
-        <v>2214.708848710447</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q18" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>391.0364678760673</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C19" t="n">
-        <v>222.1002849481604</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D19" t="n">
-        <v>71.98364553582462</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E19" t="n">
-        <v>51.24678656800313</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F19" t="n">
-        <v>51.24678656800313</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G19" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K19" t="n">
         <v>248.4064713020476</v>
@@ -5697,28 +5697,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S19" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T19" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U19" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V19" t="n">
-        <v>1310.884232784815</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W19" t="n">
-        <v>1021.467062747854</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="X19" t="n">
-        <v>793.4775118498371</v>
+        <v>734.8288714835581</v>
       </c>
       <c r="Y19" t="n">
-        <v>572.684932706307</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1445.96558289315</v>
+        <v>494.0456011520461</v>
       </c>
       <c r="C20" t="n">
-        <v>1077.003065952738</v>
+        <v>125.0830842116344</v>
       </c>
       <c r="D20" t="n">
-        <v>1077.003065952738</v>
+        <v>125.0830842116344</v>
       </c>
       <c r="E20" t="n">
-        <v>1077.003065952738</v>
+        <v>125.0830842116344</v>
       </c>
       <c r="F20" t="n">
-        <v>666.0171611631308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G20" t="n">
-        <v>250.3124108874197</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H20" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M20" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O20" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P20" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T20" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U20" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V20" t="n">
-        <v>2562.339328400156</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W20" t="n">
-        <v>2209.570673130042</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X20" t="n">
-        <v>1836.104914868962</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y20" t="n">
-        <v>1445.96558289315</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542611</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488056</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756906</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182527</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057973</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J21" t="n">
         <v>113.5972052500114</v>
@@ -5837,25 +5837,25 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L21" t="n">
-        <v>593.0223835625332</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M21" t="n">
-        <v>956.2844025217532</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N21" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O21" t="n">
-        <v>1675.63996629486</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P21" t="n">
-        <v>2238.100841080695</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q21" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S21" t="n">
         <v>2426.617474780096</v>
@@ -5864,16 +5864,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1006.01552520271</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="C22" t="n">
-        <v>837.0793422748035</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="D22" t="n">
-        <v>686.9627028624677</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="E22" t="n">
-        <v>539.0496092800746</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="F22" t="n">
-        <v>392.1596617821642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G22" t="n">
-        <v>224.1731970904428</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H22" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I22" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J22" t="n">
         <v>76.715959553122</v>
@@ -5940,22 +5940,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U22" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V22" t="n">
-        <v>1636.446120074497</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W22" t="n">
-        <v>1636.446120074497</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X22" t="n">
-        <v>1408.45656917648</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y22" t="n">
-        <v>1187.66399003295</v>
+        <v>131.4655134886758</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1432.831501090108</v>
+        <v>1441.15107294488</v>
       </c>
       <c r="C23" t="n">
-        <v>1432.831501090108</v>
+        <v>1441.15107294488</v>
       </c>
       <c r="D23" t="n">
-        <v>1432.831501090108</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E23" t="n">
-        <v>1047.043248491864</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F23" t="n">
-        <v>636.0573437022563</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G23" t="n">
-        <v>220.3525934265451</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
@@ -6016,25 +6016,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U23" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V23" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W23" t="n">
-        <v>2209.570673130042</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X23" t="n">
-        <v>2209.570673130042</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1819.43134115423</v>
+        <v>1441.15107294488</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>349.276519562732</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C25" t="n">
-        <v>349.276519562732</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D25" t="n">
-        <v>199.1598801503962</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E25" t="n">
-        <v>51.24678656800312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F25" t="n">
-        <v>51.24678656800312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
         <v>51.24678656800312</v>
@@ -6174,25 +6174,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S25" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T25" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U25" t="n">
-        <v>893.3781778055794</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V25" t="n">
-        <v>638.6936895996926</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W25" t="n">
-        <v>349.276519562732</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X25" t="n">
-        <v>349.276519562732</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y25" t="n">
-        <v>349.276519562732</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1445.96558289315</v>
+        <v>1677.574522601425</v>
       </c>
       <c r="C26" t="n">
-        <v>1077.003065952738</v>
+        <v>1308.612005661013</v>
       </c>
       <c r="D26" t="n">
-        <v>718.7373673459879</v>
+        <v>950.3463070542628</v>
       </c>
       <c r="E26" t="n">
-        <v>332.9491147477436</v>
+        <v>564.5580544560185</v>
       </c>
       <c r="F26" t="n">
-        <v>332.9491147477436</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G26" t="n">
-        <v>332.9491147477436</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I26" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
@@ -6253,25 +6253,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W26" t="n">
-        <v>2209.570673130042</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X26" t="n">
-        <v>1836.104914868962</v>
+        <v>2064.174362665547</v>
       </c>
       <c r="Y26" t="n">
-        <v>1445.96558289315</v>
+        <v>2064.174362665547</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542611</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488056</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756906</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4432786182527</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H27" t="n">
         <v>71.67401812057899</v>
@@ -6308,28 +6308,28 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>684.9695361605189</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L27" t="n">
-        <v>979.6730931919907</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M27" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N27" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O27" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P27" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S27" t="n">
         <v>2426.617474780096</v>
@@ -6338,16 +6338,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C28" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D28" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E28" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F28" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G28" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H28" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I28" t="n">
         <v>51.24678656800312</v>
@@ -6411,25 +6411,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S28" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T28" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U28" t="n">
-        <v>1087.683159487371</v>
+        <v>936.3618696456771</v>
       </c>
       <c r="V28" t="n">
-        <v>1087.683159487371</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="W28" t="n">
-        <v>1087.683159487371</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X28" t="n">
-        <v>1087.683159487371</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y28" t="n">
-        <v>1087.683159487371</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2172.199996424344</v>
+        <v>1465.289389295559</v>
       </c>
       <c r="C29" t="n">
-        <v>1803.237479483932</v>
+        <v>1096.326872355148</v>
       </c>
       <c r="D29" t="n">
-        <v>1444.971780877182</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E29" t="n">
-        <v>1059.183528278938</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F29" t="n">
-        <v>648.1976234893302</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G29" t="n">
-        <v>232.4928732136191</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T29" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U29" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V29" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W29" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X29" t="n">
-        <v>2562.339328400156</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.199996424344</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>979.3205878948407</v>
+        <v>683.7982798220356</v>
       </c>
       <c r="C31" t="n">
-        <v>810.3844049669339</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="D31" t="n">
-        <v>660.2677655545981</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E31" t="n">
-        <v>512.354671972205</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F31" t="n">
-        <v>365.4647244742946</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G31" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H31" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I31" t="n">
         <v>51.24678656800312</v>
@@ -6654,19 +6654,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U31" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V31" t="n">
-        <v>1381.76163186861</v>
+        <v>1154.863914689236</v>
       </c>
       <c r="W31" t="n">
-        <v>1381.76163186861</v>
+        <v>865.4467446522754</v>
       </c>
       <c r="X31" t="n">
-        <v>1381.76163186861</v>
+        <v>865.4467446522754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1160.96905272508</v>
+        <v>865.4467446522754</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1412.134398099143</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.725694231566</v>
+        <v>922.5193592425342</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.725694231566</v>
+        <v>564.2536606357837</v>
       </c>
       <c r="E32" t="n">
-        <v>877.9374416333219</v>
+        <v>564.2536606357837</v>
       </c>
       <c r="F32" t="n">
-        <v>466.9515368437143</v>
+        <v>564.2536606357837</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H32" t="n">
         <v>51.24678656800312</v>
@@ -6700,22 +6700,22 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P32" t="n">
         <v>2360.886721764998</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U32" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V32" t="n">
-        <v>2562.339328400156</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W32" t="n">
-        <v>2562.339328400156</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X32" t="n">
-        <v>2188.873570139076</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y32" t="n">
-        <v>1798.734238163264</v>
+        <v>1291.481876182946</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1671.965297428351</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C34" t="n">
-        <v>1671.965297428351</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D34" t="n">
-        <v>1521.848658016015</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E34" t="n">
-        <v>1373.935564433622</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F34" t="n">
-        <v>1373.935564433622</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G34" t="n">
-        <v>1205.9490997419</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H34" t="n">
-        <v>1057.210201605407</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I34" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J34" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K34" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L34" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M34" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N34" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P34" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q34" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>2142.732099754753</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U34" t="n">
-        <v>1853.61376225859</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V34" t="n">
-        <v>1853.61376225859</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W34" t="n">
-        <v>1853.61376225859</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X34" t="n">
-        <v>1853.61376225859</v>
+        <v>379.7851988961531</v>
       </c>
       <c r="Y34" t="n">
-        <v>1853.61376225859</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>437.0350391662474</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="C35" t="n">
-        <v>437.0350391662474</v>
+        <v>901.8222562515684</v>
       </c>
       <c r="D35" t="n">
-        <v>437.0350391662474</v>
+        <v>543.556557644818</v>
       </c>
       <c r="E35" t="n">
-        <v>51.24678656800312</v>
+        <v>543.556557644818</v>
       </c>
       <c r="F35" t="n">
-        <v>51.24678656800312</v>
+        <v>543.556557644818</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H35" t="n">
         <v>51.24678656800312</v>
@@ -6937,10 +6937,10 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L35" t="n">
         <v>795.7553530872917</v>
@@ -6949,10 +6949,10 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O35" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P35" t="n">
         <v>2360.886721764998</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S35" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2524.652572816766</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U35" t="n">
-        <v>2271.071512080945</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V35" t="n">
-        <v>1940.008624737375</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W35" t="n">
-        <v>1587.239969467261</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X35" t="n">
-        <v>1213.774211206181</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y35" t="n">
-        <v>823.6348792303692</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>932.6070201144365</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C37" t="n">
-        <v>763.6708371865296</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D37" t="n">
-        <v>613.5541977741939</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E37" t="n">
-        <v>473.8272960668249</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F37" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G37" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H37" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I37" t="n">
         <v>51.24678656800312</v>
@@ -7119,28 +7119,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1337.233965749941</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="T37" t="n">
-        <v>1114.255484944676</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="U37" t="n">
-        <v>1114.255484944676</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="V37" t="n">
-        <v>1114.255484944676</v>
+        <v>1524.947328691001</v>
       </c>
       <c r="W37" t="n">
-        <v>1114.255484944676</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X37" t="n">
-        <v>1114.255484944676</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y37" t="n">
-        <v>1114.255484944676</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>795.3007377729979</v>
+        <v>1221.70230638237</v>
       </c>
       <c r="C38" t="n">
-        <v>795.3007377729979</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="D38" t="n">
-        <v>437.0350391662474</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E38" t="n">
-        <v>51.24678656800312</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F38" t="n">
-        <v>51.24678656800312</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G38" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
         <v>442.5171852816084</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S38" t="n">
-        <v>2507.019964738301</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T38" t="n">
-        <v>2298.274323344126</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U38" t="n">
-        <v>2298.274323344126</v>
+        <v>1998.441478422304</v>
       </c>
       <c r="V38" t="n">
-        <v>2298.274323344126</v>
+        <v>1998.441478422304</v>
       </c>
       <c r="W38" t="n">
-        <v>1945.505668074011</v>
+        <v>1998.441478422304</v>
       </c>
       <c r="X38" t="n">
-        <v>1572.039909812931</v>
+        <v>1998.441478422304</v>
       </c>
       <c r="Y38" t="n">
-        <v>1181.90057783712</v>
+        <v>1608.302146446492</v>
       </c>
     </row>
     <row r="39">
@@ -7229,55 +7229,55 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542611</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488056</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756906</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182527</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057973</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K39" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L39" t="n">
-        <v>593.0223835625332</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M39" t="n">
-        <v>1227.201367341572</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N39" t="n">
-        <v>1861.38035112061</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O39" t="n">
-        <v>2193.450786296772</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P39" t="n">
-        <v>2440.633520129069</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R39" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S39" t="n">
         <v>2426.617474780096</v>
@@ -7289,10 +7289,10 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
         <v>1307.279776881661</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.7476822882293</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C40" t="n">
-        <v>444.7476822882293</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7476822882293</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7476822882293</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F40" t="n">
-        <v>444.7476822882293</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G40" t="n">
-        <v>276.7612175965079</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H40" t="n">
-        <v>128.0223194600141</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J40" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020476</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1439.817372234359</v>
+        <v>1570.234768884302</v>
       </c>
       <c r="T40" t="n">
-        <v>1216.838891429094</v>
+        <v>1347.256288079038</v>
       </c>
       <c r="U40" t="n">
-        <v>1216.838891429094</v>
+        <v>1058.137950582876</v>
       </c>
       <c r="V40" t="n">
-        <v>962.1544032232072</v>
+        <v>803.4534623769887</v>
       </c>
       <c r="W40" t="n">
-        <v>672.7372331862466</v>
+        <v>514.036292340028</v>
       </c>
       <c r="X40" t="n">
-        <v>444.7476822882293</v>
+        <v>514.036292340028</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.7476822882293</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>265.9761533554615</v>
+        <v>902.2877029482374</v>
       </c>
       <c r="C41" t="n">
-        <v>265.9761533554615</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="D41" t="n">
-        <v>265.9761533554615</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="E41" t="n">
-        <v>265.9761533554615</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="F41" t="n">
-        <v>265.9761533554615</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G41" t="n">
-        <v>265.9761533554615</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H41" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L41" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O41" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R41" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T41" t="n">
-        <v>2353.59368700598</v>
+        <v>2272.242509191063</v>
       </c>
       <c r="U41" t="n">
-        <v>2100.01262627016</v>
+        <v>2018.661448455243</v>
       </c>
       <c r="V41" t="n">
-        <v>1768.949738926589</v>
+        <v>2018.661448455243</v>
       </c>
       <c r="W41" t="n">
-        <v>1416.181083656475</v>
+        <v>1665.892793185129</v>
       </c>
       <c r="X41" t="n">
-        <v>1042.715325395395</v>
+        <v>1292.427034924049</v>
       </c>
       <c r="Y41" t="n">
-        <v>652.5759934195833</v>
+        <v>902.2877029482374</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G42" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K42" t="n">
-        <v>458.7060632252736</v>
+        <v>614.5430248380217</v>
       </c>
       <c r="L42" t="n">
-        <v>1092.885047004312</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M42" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O42" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7523,7 +7523,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
@@ -7532,7 +7532,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1006.01552520271</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="C43" t="n">
-        <v>837.0793422748035</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="D43" t="n">
-        <v>686.9627028624677</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="E43" t="n">
-        <v>539.0496092800746</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F43" t="n">
-        <v>392.1596617821642</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G43" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H43" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J43" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K43" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7590,31 +7590,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q43" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R43" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S43" t="n">
-        <v>1636.446120074497</v>
+        <v>1517.083278840535</v>
       </c>
       <c r="T43" t="n">
-        <v>1636.446120074497</v>
+        <v>1294.10479803527</v>
       </c>
       <c r="U43" t="n">
-        <v>1636.446120074497</v>
+        <v>1004.986460539108</v>
       </c>
       <c r="V43" t="n">
-        <v>1636.446120074497</v>
+        <v>750.3019723332209</v>
       </c>
       <c r="W43" t="n">
-        <v>1636.446120074497</v>
+        <v>460.8848022962602</v>
       </c>
       <c r="X43" t="n">
-        <v>1408.45656917648</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y43" t="n">
-        <v>1187.66399003295</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1081.071510755572</v>
+        <v>1291.481876182948</v>
       </c>
       <c r="C44" t="n">
-        <v>712.1089938151601</v>
+        <v>1291.481876182948</v>
       </c>
       <c r="D44" t="n">
-        <v>353.8432952084096</v>
+        <v>933.2161775761977</v>
       </c>
       <c r="E44" t="n">
-        <v>353.8432952084096</v>
+        <v>547.4279249779534</v>
       </c>
       <c r="F44" t="n">
-        <v>353.8432952084096</v>
+        <v>547.4279249779534</v>
       </c>
       <c r="G44" t="n">
-        <v>51.24678656800312</v>
+        <v>131.7231747022422</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800316</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800316</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230819</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740842</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723853</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400158</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926629</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532453</v>
       </c>
       <c r="U44" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796633</v>
       </c>
       <c r="V44" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453062</v>
       </c>
       <c r="W44" t="n">
-        <v>2231.276441056585</v>
+        <v>1291.481876182948</v>
       </c>
       <c r="X44" t="n">
-        <v>1857.810682795505</v>
+        <v>1291.481876182948</v>
       </c>
       <c r="Y44" t="n">
-        <v>1467.671350819694</v>
+        <v>1291.481876182948</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G45" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057903</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500115</v>
       </c>
       <c r="K45" t="n">
-        <v>483.0441129489461</v>
+        <v>560.1394111735144</v>
       </c>
       <c r="L45" t="n">
-        <v>1117.223096727985</v>
+        <v>1117.223096727984</v>
       </c>
       <c r="M45" t="n">
-        <v>1480.485115687205</v>
+        <v>1480.485115687204</v>
       </c>
       <c r="N45" t="n">
         <v>1867.77024428415</v>
@@ -7760,7 +7760,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
@@ -7769,7 +7769,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>977.1399948936612</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C46" t="n">
-        <v>977.1399948936612</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D46" t="n">
-        <v>977.1399948936612</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E46" t="n">
-        <v>977.1399948936612</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F46" t="n">
-        <v>977.1399948936612</v>
+        <v>219.2332512597246</v>
       </c>
       <c r="G46" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="H46" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="I46" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="J46" t="n">
-        <v>1002.60916787878</v>
+        <v>76.7159595531221</v>
       </c>
       <c r="K46" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020478</v>
       </c>
       <c r="L46" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M46" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N46" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O46" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P46" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q46" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R46" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.710580560017</v>
+        <v>1458.508639459305</v>
       </c>
       <c r="T46" t="n">
-        <v>2142.732099754753</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.023783178056</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="V46" t="n">
-        <v>1715.339294972169</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W46" t="n">
-        <v>1425.922124935209</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X46" t="n">
-        <v>1197.932574037191</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y46" t="n">
-        <v>977.1399948936612</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L2" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M2" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N2" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O2" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P2" t="n">
         <v>95.50771753390021</v>
@@ -8078,7 +8078,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M4" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N4" t="n">
         <v>62.89780050171086</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>116.9682609530346</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>30.36925650589434</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>240.4465442417443</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>114.3555089013351</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>30.36925650589538</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.89339468985725</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>20.93778120154988</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.454437538930151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>35.91627445172475</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="L42" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>60.50016306149496</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>342.9044714621887</v>
+        <v>265.0304328515126</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>348.2863176346414</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>25.78335984937857</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>41.6077186194016</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>36.19408632378008</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>98.73949432713027</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750799</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23260,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>131.1673011786912</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>139.9018641501626</v>
       </c>
     </row>
     <row r="12">
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>117.4898945644932</v>
       </c>
       <c r="U13" t="n">
         <v>286.2271541212006</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>315.0051520950246</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>264.280251657795</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>51.9678055596316</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>92.67373081984061</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>37.12648044339488</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>198.9656296533693</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>125.9044722684259</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>147.2515091551288</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
         <v>194.6624603617375</v>
@@ -23949,13 +23949,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>92.5179169416383</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>333.7781110745165</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>169.6534971586534</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>66.00450837146523</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>80.85095794181414</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>244.7418293669725</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>133.6038037724488</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>67.55862005349476</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>182.4980693261863</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>265.4263557674522</v>
       </c>
       <c r="G26" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>22.13324766446232</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>206.6581849802338</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>65.25809155673102</v>
+        <v>110.1124749751914</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>204.1874178785459</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>121.5849267832456</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.045250128462</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>107.2789458766051</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>61.59841411361978</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>218.3482749421069</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>204.6894500082566</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247047</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
-        <v>25.52709055927261</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>27.25183520130773</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>225.1795819693127</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247047</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>169.3482969526776</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8.104329956273943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>84.27865689207604</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.0185525624054</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.68604537355807</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>22.89677902941565</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
-        <v>28.7888176408097</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>129.1132226834443</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>88.43647944282162</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>42.91454936202524</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>80.85095794181414</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>178.0508199596874</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>111.9771592189516</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>221.3469283095087</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>147.2515091551288</v>
@@ -26073,22 +26073,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.50435455269644</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>115.2459207102711</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>330600.7597974779</v>
+        <v>485153.5658931129</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822866.1879611121</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611117</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.1879611122</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822866.1879611121</v>
+        <v>822866.1879611124</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99166.69657404807</v>
+        <v>99166.69657404804</v>
       </c>
       <c r="C2" t="n">
         <v>99166.69657404804</v>
       </c>
       <c r="D2" t="n">
-        <v>99917.42429591442</v>
+        <v>153375.3739746993</v>
       </c>
       <c r="E2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="F2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="G2" t="n">
         <v>260075.8859201622</v>
@@ -26340,7 +26340,7 @@
         <v>260075.8859201622</v>
       </c>
       <c r="K2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="L2" t="n">
         <v>260075.8859201623</v>
@@ -26349,13 +26349,13 @@
         <v>260075.8859201622</v>
       </c>
       <c r="N2" t="n">
+        <v>260075.8859201623</v>
+      </c>
+      <c r="O2" t="n">
         <v>260075.8859201622</v>
       </c>
-      <c r="O2" t="n">
-        <v>260075.8859201621</v>
-      </c>
       <c r="P2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>326899.4975468231</v>
       </c>
       <c r="E3" t="n">
-        <v>732170.470382964</v>
+        <v>445061.6638164769</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47461.0383815111</v>
       </c>
       <c r="M3" t="n">
-        <v>159636.3024986581</v>
+        <v>112904.1760744624</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.310193849552888e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>22471.52375672497</v>
       </c>
       <c r="D4" t="n">
-        <v>19093.49581609735</v>
+        <v>7145.895421973702</v>
       </c>
       <c r="E4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="F4" t="n">
         <v>12563.18241499341</v>
@@ -26435,13 +26435,13 @@
         <v>12563.18241499341</v>
       </c>
       <c r="H4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="I4" t="n">
         <v>12563.1824149934</v>
       </c>
       <c r="J4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="K4" t="n">
         <v>12563.1824149934</v>
@@ -26453,13 +26453,13 @@
         <v>12563.1824149934</v>
       </c>
       <c r="N4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="O4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499339</v>
       </c>
       <c r="P4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499339</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
+        <v>59310.17243984471</v>
+      </c>
+      <c r="G5" t="n">
         <v>59310.17243984472</v>
       </c>
-      <c r="G5" t="n">
-        <v>59310.17243984473</v>
-      </c>
       <c r="H5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984473</v>
@@ -26508,10 +26508,10 @@
         <v>59310.17243984473</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984475</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984477</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188287.7288925272</v>
+        <v>-202980.4380465433</v>
       </c>
       <c r="C6" t="n">
-        <v>37949.3679861764</v>
+        <v>23256.65883216037</v>
       </c>
       <c r="D6" t="n">
-        <v>19230.19699311941</v>
+        <v>-249159.782830277</v>
       </c>
       <c r="E6" t="n">
-        <v>-543967.9393176399</v>
+        <v>-262086.5954730446</v>
       </c>
       <c r="F6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="G6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="H6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="I6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="J6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="K6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434325</v>
       </c>
       <c r="L6" t="n">
-        <v>188202.5310653241</v>
+        <v>135514.0299619214</v>
       </c>
       <c r="M6" t="n">
-        <v>28566.22856666594</v>
+        <v>70070.89226896992</v>
       </c>
       <c r="N6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434325</v>
       </c>
       <c r="O6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434322</v>
       </c>
       <c r="P6" t="n">
-        <v>188202.531065324</v>
+        <v>182975.0683434325</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="G3" t="n">
         <v>934.0648921175393</v>
@@ -26776,10 +26776,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175397</v>
       </c>
     </row>
     <row r="4">
@@ -26795,19 +26795,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="H4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="I4" t="n">
         <v>640.584832100039</v>
@@ -26825,13 +26825,13 @@
         <v>640.584832100039</v>
       </c>
       <c r="N4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="P4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000395</v>
       </c>
     </row>
   </sheetData>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>313.6899027869105</v>
       </c>
       <c r="E3" t="n">
-        <v>673.2684996000743</v>
+        <v>385.5949512046345</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000389</v>
+        <v>453.0592449337187</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000389</v>
+        <v>453.0592449337187</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000389</v>
+        <v>453.0592449337187</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31056,7 +31056,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L2" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M2" t="n">
         <v>165.7299311340341</v>
@@ -31065,7 +31065,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O2" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P2" t="n">
         <v>135.7252782213693</v>
@@ -31080,7 +31080,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T2" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U2" t="n">
         <v>0.07550714794001816</v>
@@ -31150,7 +31150,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R3" t="n">
         <v>31.35420961992052</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H4" t="n">
         <v>3.764178316183975</v>
@@ -31217,7 +31217,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M4" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N4" t="n">
         <v>64.78774396352233</v>
@@ -31229,13 +31229,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R4" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S4" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T4" t="n">
         <v>1.808960949495364</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T11" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31834,10 +31834,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31846,7 +31846,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
         <v>509.0653662040588</v>
@@ -31855,25 +31855,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R12" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31931,10 +31931,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31946,13 +31946,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
         <v>38.45624955336179</v>
@@ -32004,16 +32004,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N14" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P14" t="n">
         <v>539.9786897190645</v>
@@ -32025,7 +32025,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T14" t="n">
         <v>16.4376645838976</v>
@@ -32074,7 +32074,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
@@ -32086,16 +32086,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
         <v>256.4624964168761</v>
@@ -32153,7 +32153,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32180,7 +32180,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
         <v>29.35413767523479</v>
@@ -32189,7 +32189,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H41" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I41" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J41" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K41" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L41" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N41" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P41" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q41" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R41" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T41" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H42" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I42" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J42" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K42" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L42" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M42" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O42" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R42" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S42" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T42" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U42" t="n">
         <v>0.1321789941675764</v>
@@ -34283,46 +34283,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H43" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I43" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J43" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K43" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L43" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M43" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N43" t="n">
-        <v>257.7559726067959</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O43" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P43" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q43" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R43" t="n">
-        <v>75.73581895759587</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S43" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T43" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H44" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I44" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J44" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T44" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H45" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J45" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K45" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R45" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S45" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T45" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U45" t="n">
         <v>0.1321789941675764</v>
@@ -34520,46 +34520,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H46" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J46" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K46" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L46" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M46" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N46" t="n">
-        <v>257.7559726067959</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O46" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P46" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759587</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S46" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>98.86065188594075</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091739</v>
+        <v>93.34947739681176</v>
       </c>
       <c r="K12" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N12" t="n">
         <v>391.1970995928739</v>
@@ -35506,13 +35506,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R12" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K13" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
         <v>278.0112915831069</v>
@@ -35579,7 +35579,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
         <v>262.6644876295069</v>
@@ -35588,7 +35588,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N14" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P14" t="n">
         <v>308.745693963795</v>
@@ -35670,7 +35670,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820406</v>
+        <v>481.2868411833756</v>
       </c>
       <c r="N15" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O15" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K16" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
         <v>303.6179906468033</v>
@@ -35819,13 +35819,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.34947739681283</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K18" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L18" t="n">
         <v>297.6803606378502</v>
@@ -35980,13 +35980,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P18" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R18" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L21" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M21" t="n">
         <v>366.9313322820406</v>
@@ -36220,10 +36220,10 @@
         <v>568.1422977634695</v>
       </c>
       <c r="Q21" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R21" t="n">
-        <v>0.9556134883073677</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36694,7 +36694,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N39" t="n">
-        <v>640.584832100039</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O39" t="n">
         <v>335.4246819961231</v>
@@ -37642,10 +37642,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>122.9351598697847</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407338</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M41" t="n">
-        <v>429.0050109457278</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N41" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P41" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5037706952096</v>
+        <v>379.9148430313186</v>
       </c>
       <c r="L42" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N42" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O42" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P42" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667038</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K43" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L43" t="n">
         <v>278.011291583107</v>
       </c>
       <c r="M43" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N43" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O43" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P43" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407338</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457278</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P44" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091751</v>
       </c>
       <c r="K45" t="n">
-        <v>247.0876593049798</v>
+        <v>451.0527332560636</v>
       </c>
       <c r="L45" t="n">
-        <v>640.584832100039</v>
+        <v>562.710793489363</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N45" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O45" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308547</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K46" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L46" t="n">
         <v>278.011291583107</v>
       </c>
       <c r="M46" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N46" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O46" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P46" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336396.3048630668</v>
+        <v>398045.5087044803</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11512539.900382</v>
+        <v>11391437.76547035</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10361893.43952979</v>
+        <v>10676351.96705204</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8239106.155279132</v>
+        <v>8096213.398164084</v>
       </c>
     </row>
     <row r="11">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.396723986041543</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>179.9896253540989</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>44.29896898635255</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>246.336074505891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269742</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>47.06289814933466</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>103.2588014327187</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>175.8169876492175</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>96.54255067792938</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518637</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269742</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.8641746223057</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16.61164040205006</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>32.43073232081907</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>344.8038896288669</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705085</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>133.1917384473988</v>
+        <v>33.99895236607904</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>147.6756320383321</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>73.09793466719498</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>206.6581849802338</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>79.41653965146601</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>159.2779740828736</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>109.9412122537105</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>411.547702772954</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>99.61348544935842</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>98.7808062883928</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.3066000448042</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>69.63957399764172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>141.4496899742593</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>19.81235069171</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>57.46654686100108</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>176.1146791460092</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>150.4956237421371</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>164.5895708850346</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>181.3351457055848</v>
       </c>
       <c r="V31" t="n">
-        <v>190.5392292102082</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>228.6947322088295</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>206.8582527646973</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>61.53726617445248</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>198.4578201877294</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>26.4750368736993</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>186.3681208036413</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>110.3838034696614</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>209.7339065810865</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>22.46248954221903</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>228.1484710990464</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3066000448042</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>65.5492376782931</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
@@ -3720,13 +3720,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>235.2167632643717</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>370.2325183449638</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247041</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>163.7436356182085</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H42" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269607</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>32.30106318429969</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.61164040205009</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>167.7362889565157</v>
       </c>
       <c r="G44" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>79.67162425289665</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>206.6581849802338</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>176.158105809041</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>86.30632419201457</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400.3029543659133</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400.3029543659133</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>393.8416170062753</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062753</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897905</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644755</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>509.495204112383</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985585</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020269</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.10234866528</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>750.10234866528</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>589.7227393823981</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>589.7227393823981</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>589.7227393823981</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>589.7227393823981</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>589.7227393823981</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>589.7227393823981</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>589.7227393823981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>189.4550762544326</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140245</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476352</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017066</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.10234866528</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>750.10234866528</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>750.10234866528</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>560.6825636487952</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487952</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>560.6825636487952</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>371.2627786323103</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>189.4550762544326</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>189.4550762544326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745585</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>465.2530182692153</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>650.9033495638721</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>652.2303032981987</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>750.10234866528</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>750.10234866528</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>750.10234866528</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>583.2614020227602</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>393.8416170062753</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>204.4218319897905</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0020469733056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>877.9374416333219</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C11" t="n">
-        <v>877.9374416333219</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D11" t="n">
-        <v>877.9374416333219</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E11" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F11" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G11" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H11" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I11" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T11" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U11" t="n">
-        <v>2184.059060190805</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V11" t="n">
-        <v>1852.996172847234</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W11" t="n">
-        <v>1500.22751757712</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="X11" t="n">
-        <v>1126.76175931604</v>
+        <v>1733.111475321976</v>
       </c>
       <c r="Y11" t="n">
-        <v>877.9374416333219</v>
+        <v>1733.111475321976</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756897</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J12" t="n">
-        <v>143.6627691908467</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K12" t="n">
-        <v>590.2049751143495</v>
+        <v>590.2049751143506</v>
       </c>
       <c r="L12" t="n">
-        <v>884.9085321458213</v>
+        <v>884.9085321458224</v>
       </c>
       <c r="M12" t="n">
-        <v>1248.170551105041</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N12" t="n">
-        <v>1635.455679701987</v>
+        <v>1635.455679701988</v>
       </c>
       <c r="O12" t="n">
-        <v>1967.526114878148</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P12" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q12" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>833.0891146802707</v>
+        <v>393.5881086072305</v>
       </c>
       <c r="C13" t="n">
-        <v>664.1529317523638</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D13" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E13" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F13" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I13" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
@@ -5229,22 +5229,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1532.144300445488</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U13" t="n">
-        <v>1532.144300445488</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V13" t="n">
-        <v>1532.144300445488</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W13" t="n">
-        <v>1242.727130408528</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X13" t="n">
-        <v>1014.73757951051</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y13" t="n">
-        <v>1014.73757951051</v>
+        <v>575.2365734374703</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>918.0161179218655</v>
+        <v>1507.692260213069</v>
       </c>
       <c r="C14" t="n">
-        <v>918.0161179218655</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D14" t="n">
-        <v>559.7504193151151</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E14" t="n">
-        <v>559.7504193151151</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F14" t="n">
-        <v>148.7645145255075</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K14" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T14" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U14" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V14" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="W14" t="n">
-        <v>1291.481876182945</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="X14" t="n">
-        <v>918.0161179218655</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="Y14" t="n">
-        <v>918.0161179218655</v>
+        <v>1507.692260213069</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756901</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H15" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908473</v>
       </c>
       <c r="K15" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L15" t="n">
-        <v>979.6730931919906</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M15" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.432194560478</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O15" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P15" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q15" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C16" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D16" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E16" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F16" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
@@ -5457,31 +5457,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R16" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S16" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T16" t="n">
-        <v>1216.838891429094</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U16" t="n">
-        <v>1216.838891429094</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V16" t="n">
-        <v>1216.838891429094</v>
+        <v>767.0814070827663</v>
       </c>
       <c r="W16" t="n">
-        <v>1216.838891429094</v>
+        <v>477.6642370458057</v>
       </c>
       <c r="X16" t="n">
-        <v>1216.838891429094</v>
+        <v>249.6746861477883</v>
       </c>
       <c r="Y16" t="n">
-        <v>1216.838891429094</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1126.761759316041</v>
+        <v>977.0694062730081</v>
       </c>
       <c r="C17" t="n">
-        <v>757.7992423756293</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D17" t="n">
-        <v>399.5335437688788</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E17" t="n">
-        <v>51.24678656800311</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F17" t="n">
-        <v>51.24678656800311</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
@@ -5533,13 +5533,13 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S17" t="n">
         <v>2437.640120926626</v>
@@ -5548,19 +5548,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U17" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V17" t="n">
-        <v>1852.996172847235</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W17" t="n">
-        <v>1500.227517577121</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X17" t="n">
-        <v>1126.761759316041</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="Y17" t="n">
-        <v>1126.761759316041</v>
+        <v>1363.66924633713</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E18" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F18" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G18" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057973</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500114</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K18" t="n">
-        <v>507.2413987429757</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L18" t="n">
-        <v>801.9449557744474</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N18" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O18" t="n">
-        <v>1884.562538506775</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S18" t="n">
         <v>2426.617474780096</v>
@@ -5630,7 +5630,7 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W18" t="n">
         <v>1515.131277087194</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.036292340028</v>
+        <v>349.276519562732</v>
       </c>
       <c r="C19" t="n">
-        <v>514.036292340028</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D19" t="n">
-        <v>514.036292340028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E19" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F19" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J19" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K19" t="n">
         <v>248.4064713020476</v>
@@ -5682,7 +5682,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
@@ -5694,31 +5694,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S19" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T19" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U19" t="n">
-        <v>1413.467639269233</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V19" t="n">
-        <v>1158.783151063346</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W19" t="n">
-        <v>869.3659810263853</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="X19" t="n">
-        <v>734.8288714835581</v>
+        <v>349.276519562732</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.036292340028</v>
+        <v>349.276519562732</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>494.0456011520461</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="C20" t="n">
-        <v>125.0830842116344</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="D20" t="n">
-        <v>125.0830842116344</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="E20" t="n">
-        <v>125.0830842116344</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F20" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G20" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I20" t="n">
         <v>51.24678656800311</v>
@@ -5779,25 +5779,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T20" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U20" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V20" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W20" t="n">
-        <v>1644.250531453059</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X20" t="n">
-        <v>1270.78477319198</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y20" t="n">
-        <v>880.6454412161679</v>
+        <v>652.5759934195833</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G21" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I21" t="n">
         <v>51.24678656800311</v>
@@ -5834,19 +5834,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K21" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L21" t="n">
-        <v>801.944955774447</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.492103330612</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O21" t="n">
-        <v>1884.562538506774</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P21" t="n">
         <v>2447.023413292609</v>
@@ -5864,16 +5864,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V21" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131.4655134886758</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C22" t="n">
-        <v>131.4655134886758</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D22" t="n">
-        <v>131.4655134886758</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E22" t="n">
-        <v>131.4655134886758</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F22" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G22" t="n">
         <v>51.24678656800311</v>
@@ -5910,7 +5910,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J22" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K22" t="n">
         <v>248.4064713020476</v>
@@ -5919,7 +5919,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N22" t="n">
         <v>1123.088724245823</v>
@@ -5931,31 +5931,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R22" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S22" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T22" t="n">
-        <v>1413.467639269233</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U22" t="n">
-        <v>1124.349301773071</v>
+        <v>1278.930529726406</v>
       </c>
       <c r="V22" t="n">
-        <v>869.6648135671838</v>
+        <v>1024.246041520519</v>
       </c>
       <c r="W22" t="n">
-        <v>580.2476435302233</v>
+        <v>734.8288714835581</v>
       </c>
       <c r="X22" t="n">
-        <v>352.2580926322059</v>
+        <v>734.8288714835581</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.4655134886758</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1441.15107294488</v>
+        <v>891.5908846145762</v>
       </c>
       <c r="C23" t="n">
-        <v>1441.15107294488</v>
+        <v>891.5908846145762</v>
       </c>
       <c r="D23" t="n">
-        <v>1330.099343395678</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="E23" t="n">
-        <v>944.3110907974335</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="F23" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G23" t="n">
         <v>117.6204357321147</v>
@@ -5986,19 +5986,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N23" t="n">
         <v>1656.671415230817</v>
@@ -6007,34 +6007,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U23" t="n">
-        <v>2184.059060190806</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V23" t="n">
-        <v>2184.059060190806</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W23" t="n">
-        <v>1831.290404920692</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X23" t="n">
-        <v>1831.290404920692</v>
+        <v>1668.33005665451</v>
       </c>
       <c r="Y23" t="n">
-        <v>1441.15107294488</v>
+        <v>1278.190724678698</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D24" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E24" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F24" t="n">
         <v>302.1446891756898</v>
@@ -6062,31 +6062,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L24" t="n">
-        <v>909.2465818694941</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M24" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6101,7 +6101,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V24" t="n">
         <v>1769.368633815395</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>833.0891146802707</v>
+        <v>466.9249370526154</v>
       </c>
       <c r="C25" t="n">
-        <v>664.1529317523638</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D25" t="n">
-        <v>514.036292340028</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E25" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F25" t="n">
         <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H25" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
         <v>76.715959553122</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T25" t="n">
-        <v>1533.86271359008</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U25" t="n">
-        <v>1533.86271359008</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V25" t="n">
-        <v>1463.519709552058</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W25" t="n">
-        <v>1463.519709552058</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="X25" t="n">
-        <v>1235.53015865404</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="Y25" t="n">
-        <v>1014.73757951051</v>
+        <v>648.5734018828551</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1677.574522601425</v>
+        <v>844.848651279277</v>
       </c>
       <c r="C26" t="n">
-        <v>1308.612005661013</v>
+        <v>475.8861343388652</v>
       </c>
       <c r="D26" t="n">
-        <v>950.3463070542628</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E26" t="n">
-        <v>564.5580544560185</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F26" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G26" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H26" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
@@ -6244,34 +6244,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T26" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U26" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V26" t="n">
-        <v>2437.640120926626</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W26" t="n">
-        <v>2437.640120926626</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X26" t="n">
-        <v>2064.174362665547</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y26" t="n">
-        <v>2064.174362665547</v>
+        <v>1231.448491343399</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J27" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>614.5430248380223</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L27" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M27" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O27" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P27" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q27" t="n">
         <v>2562.339328400155</v>
@@ -6338,16 +6338,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V27" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.24678656800312</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C28" t="n">
-        <v>51.24678656800312</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D28" t="n">
-        <v>51.24678656800312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E28" t="n">
-        <v>51.24678656800312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F28" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G28" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J28" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K28" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L28" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N28" t="n">
         <v>1123.088724245823</v>
@@ -6408,28 +6408,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U28" t="n">
-        <v>936.3618696456771</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V28" t="n">
-        <v>681.6773814397902</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W28" t="n">
-        <v>681.6773814397902</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X28" t="n">
-        <v>453.6878305417729</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y28" t="n">
-        <v>232.8952513982428</v>
+        <v>575.2365734374703</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1465.289389295559</v>
+        <v>1468.828881207249</v>
       </c>
       <c r="C29" t="n">
-        <v>1096.326872355148</v>
+        <v>1468.828881207249</v>
       </c>
       <c r="D29" t="n">
-        <v>944.3110907974335</v>
+        <v>1110.563182600499</v>
       </c>
       <c r="E29" t="n">
-        <v>944.3110907974335</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F29" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G29" t="n">
         <v>117.6204357321147</v>
@@ -6460,19 +6460,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J29" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872916</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N29" t="n">
         <v>1656.671415230817</v>
@@ -6481,13 +6481,13 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
         <v>2437.640120926626</v>
@@ -6508,7 +6508,7 @@
         <v>1855.428721271371</v>
       </c>
       <c r="Y29" t="n">
-        <v>1465.289389295559</v>
+        <v>1855.428721271371</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D30" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F30" t="n">
         <v>302.1446891756898</v>
@@ -6536,31 +6536,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380223</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L30" t="n">
-        <v>909.2465818694941</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M30" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.793729425659</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q30" t="n">
         <v>2562.339328400155</v>
@@ -6575,7 +6575,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>683.7982798220356</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C31" t="n">
-        <v>514.8620968941287</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D31" t="n">
-        <v>514.8620968941287</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E31" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F31" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G31" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J31" t="n">
         <v>76.715959553122</v>
@@ -6651,22 +6651,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T31" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U31" t="n">
-        <v>1347.327782578335</v>
+        <v>1230.300825425208</v>
       </c>
       <c r="V31" t="n">
-        <v>1154.863914689236</v>
+        <v>975.6163372193209</v>
       </c>
       <c r="W31" t="n">
-        <v>865.4467446522754</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="X31" t="n">
-        <v>865.4467446522754</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="Y31" t="n">
-        <v>865.4467446522754</v>
+        <v>686.1991671823603</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1291.481876182946</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="C32" t="n">
-        <v>922.5193592425342</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D32" t="n">
-        <v>564.2536606357837</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E32" t="n">
-        <v>564.2536606357837</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F32" t="n">
-        <v>564.2536606357837</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G32" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H32" t="n">
         <v>51.24678656800312</v>
@@ -6703,13 +6703,13 @@
         <v>187.5281822362818</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
         <v>1656.671415230818</v>
@@ -6730,22 +6730,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.313418796631</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.25053145306</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W32" t="n">
-        <v>1291.481876182946</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X32" t="n">
-        <v>1291.481876182946</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y32" t="n">
-        <v>1291.481876182946</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K33" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L33" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M33" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.793729425659</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P33" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q33" t="n">
         <v>2562.339328400155</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>198.1367340659135</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="C34" t="n">
-        <v>198.1367340659135</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="D34" t="n">
-        <v>198.1367340659135</v>
+        <v>430.1310041178875</v>
       </c>
       <c r="E34" t="n">
-        <v>198.1367340659135</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F34" t="n">
-        <v>51.24678656800312</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H34" t="n">
         <v>51.24678656800312</v>
@@ -6900,10 +6900,10 @@
         <v>580.2476435302233</v>
       </c>
       <c r="X34" t="n">
-        <v>379.7851988961531</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y34" t="n">
-        <v>379.7851988961531</v>
+        <v>580.2476435302233</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1270.78477319198</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C35" t="n">
-        <v>901.8222562515684</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="D35" t="n">
-        <v>543.556557644818</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E35" t="n">
-        <v>543.556557644818</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F35" t="n">
-        <v>543.556557644818</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G35" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O35" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q35" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R35" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U35" t="n">
-        <v>1975.313418796631</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V35" t="n">
-        <v>1644.25053145306</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W35" t="n">
-        <v>1644.25053145306</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X35" t="n">
-        <v>1270.78477319198</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y35" t="n">
-        <v>1270.78477319198</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G36" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K36" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L36" t="n">
-        <v>909.2465818694941</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M36" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.793729425659</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O36" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7049,16 +7049,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>833.0891146802707</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C37" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D37" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E37" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F37" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G37" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H37" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K37" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M37" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N37" t="n">
         <v>1123.088724245823</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.947328691001</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T37" t="n">
-        <v>1524.947328691001</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U37" t="n">
-        <v>1524.947328691001</v>
+        <v>1004.986460539108</v>
       </c>
       <c r="V37" t="n">
-        <v>1524.947328691001</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W37" t="n">
-        <v>1235.53015865404</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X37" t="n">
-        <v>1235.53015865404</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y37" t="n">
-        <v>1014.73757951051</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.70230638237</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="C38" t="n">
-        <v>852.7397894419585</v>
+        <v>802.6346617172737</v>
       </c>
       <c r="D38" t="n">
-        <v>852.7397894419585</v>
+        <v>444.3689631105232</v>
       </c>
       <c r="E38" t="n">
-        <v>466.9515368437143</v>
+        <v>444.3689631105232</v>
       </c>
       <c r="F38" t="n">
-        <v>466.9515368437143</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G38" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U38" t="n">
-        <v>1998.441478422304</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V38" t="n">
-        <v>1998.441478422304</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W38" t="n">
-        <v>1998.441478422304</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X38" t="n">
-        <v>1998.441478422304</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y38" t="n">
-        <v>1608.302146446492</v>
+        <v>1171.597178657685</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D39" t="n">
         <v>607.9167021542605</v>
@@ -7244,37 +7244,37 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G39" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K39" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L39" t="n">
-        <v>884.908532145821</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M39" t="n">
-        <v>1248.170551105041</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N39" t="n">
-        <v>1635.455679701986</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O39" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P39" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7292,7 +7292,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X39" t="n">
         <v>1307.279776881661</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>514.036292340028</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="C40" t="n">
-        <v>514.036292340028</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D40" t="n">
-        <v>514.036292340028</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E40" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F40" t="n">
         <v>219.2332512597245</v>
       </c>
       <c r="G40" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K40" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L40" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M40" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N40" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O40" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P40" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q40" t="n">
         <v>1636.446120074497</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1570.234768884302</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>1347.256288079038</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U40" t="n">
-        <v>1058.137950582876</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V40" t="n">
-        <v>803.4534623769887</v>
+        <v>886.7566116070382</v>
       </c>
       <c r="W40" t="n">
-        <v>514.036292340028</v>
+        <v>597.3394415700776</v>
       </c>
       <c r="X40" t="n">
-        <v>514.036292340028</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="Y40" t="n">
-        <v>514.036292340028</v>
+        <v>369.3498906720603</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>902.2877029482374</v>
+        <v>1842.294639468328</v>
       </c>
       <c r="C41" t="n">
-        <v>533.3251860078258</v>
+        <v>1473.332122527916</v>
       </c>
       <c r="D41" t="n">
-        <v>533.3251860078258</v>
+        <v>1115.066423921166</v>
       </c>
       <c r="E41" t="n">
-        <v>533.3251860078258</v>
+        <v>729.2781713229215</v>
       </c>
       <c r="F41" t="n">
-        <v>533.3251860078258</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G41" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H41" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L41" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O41" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R41" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T41" t="n">
-        <v>2272.242509191063</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U41" t="n">
-        <v>2018.661448455243</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V41" t="n">
-        <v>2018.661448455243</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W41" t="n">
-        <v>1665.892793185129</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X41" t="n">
-        <v>1292.427034924049</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y41" t="n">
-        <v>902.2877029482374</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G42" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H42" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>614.5430248380217</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M42" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O42" t="n">
         <v>1991.864164601821</v>
@@ -7523,7 +7523,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
@@ -7532,7 +7532,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.24678656800314</v>
+        <v>251.8605878095222</v>
       </c>
       <c r="C43" t="n">
-        <v>51.24678656800314</v>
+        <v>251.8605878095222</v>
       </c>
       <c r="D43" t="n">
-        <v>51.24678656800314</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E43" t="n">
-        <v>51.24678656800314</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F43" t="n">
-        <v>51.24678656800314</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G43" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H43" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K43" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P43" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q43" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S43" t="n">
-        <v>1517.083278840535</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T43" t="n">
-        <v>1294.10479803527</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U43" t="n">
-        <v>1004.986460539108</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V43" t="n">
-        <v>750.3019723332209</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W43" t="n">
-        <v>460.8848022962602</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X43" t="n">
-        <v>232.8952513982428</v>
+        <v>472.6531669530523</v>
       </c>
       <c r="Y43" t="n">
-        <v>232.8952513982428</v>
+        <v>251.8605878095222</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1291.481876182948</v>
+        <v>1005.344648689697</v>
       </c>
       <c r="C44" t="n">
-        <v>1291.481876182948</v>
+        <v>636.3821317492857</v>
       </c>
       <c r="D44" t="n">
-        <v>933.2161775761977</v>
+        <v>636.3821317492857</v>
       </c>
       <c r="E44" t="n">
-        <v>547.4279249779534</v>
+        <v>636.3821317492857</v>
       </c>
       <c r="F44" t="n">
-        <v>547.4279249779534</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
-        <v>131.7231747022422</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800316</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800316</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230819</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.250581723853</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2437.640120926629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T44" t="n">
-        <v>2228.894479532453</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U44" t="n">
-        <v>1975.313418796633</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V44" t="n">
-        <v>1644.250531453062</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W44" t="n">
-        <v>1291.481876182948</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X44" t="n">
-        <v>1291.481876182948</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="Y44" t="n">
-        <v>1291.481876182948</v>
+        <v>1005.344648689697</v>
       </c>
     </row>
     <row r="45">
@@ -7721,28 +7721,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057903</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500115</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K45" t="n">
-        <v>560.1394111735144</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L45" t="n">
-        <v>1117.223096727984</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M45" t="n">
-        <v>1480.485115687204</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N45" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O45" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P45" t="n">
         <v>2447.023413292609</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>833.0891146802707</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C46" t="n">
         <v>664.1529317523638</v>
@@ -7794,64 +7794,64 @@
         <v>366.1231987576349</v>
       </c>
       <c r="F46" t="n">
-        <v>219.2332512597246</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J46" t="n">
-        <v>76.7159595531221</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020478</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P46" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q46" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R46" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1458.508639459305</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1235.53015865404</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U46" t="n">
-        <v>1235.53015865404</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V46" t="n">
-        <v>1235.53015865404</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W46" t="n">
-        <v>1235.53015865404</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="X46" t="n">
-        <v>1235.53015865404</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y46" t="n">
-        <v>1014.73757951051</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265838</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711117</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>116.9682609530346</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>30.36925650589434</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780652</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589485</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>114.3555089013351</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>30.36925650589441</v>
       </c>
       <c r="K18" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515141</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>20.93778120154988</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>84.94186588374697</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>20.93778120154988</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>20.93778120154988</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3273467878337</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>20.93778120154983</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L45" t="n">
-        <v>265.0304328515126</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154983</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>348.2863176346414</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.572246063738</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368131</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714237</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681213</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>25.78335984937857</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553082</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845772</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S10" t="n">
-        <v>41.6077186194016</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632378008</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U10" t="n">
-        <v>98.73949432713027</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>338.4348726771281</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>139.9018641501626</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>120.1839229492932</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
         <v>147.2515091551288</v>
@@ -23469,13 +23469,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>117.4898945644932</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>189.4559041217901</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0051520950246</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.9678055596316</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>201.9730129500447</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>332.8421594501885</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>37.12648044339488</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
         <v>147.2515091551288</v>
@@ -23940,13 +23940,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>92.5179169416383</v>
+        <v>191.7107030229581</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>235.0582096251485</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>333.7781110745165</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.547702772954</v>
@@ -23989,7 +23989,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>66.00450837146523</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.2515091551288</v>
@@ -24177,13 +24177,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>126.949180038327</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>244.7418293669725</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>270.1176152291106</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>68.46601481023504</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>182.4980693261863</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>265.4263557674522</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>366.4255879643436</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>122.3654333209362</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3066000448042</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>110.1124749751914</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>204.1874178785459</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>217.3407991872272</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
         <v>104.7965952039006</v>
@@ -24891,13 +24891,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>104.8920084156159</v>
       </c>
       <c r="V31" t="n">
-        <v>61.59841411361978</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>136.578159562178</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>204.6894500082566</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247047</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>84.8966964721167</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>104.7965952039006</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>27.25183520130773</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>328.2080047469836</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>225.1795819693127</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551288</v>
@@ -25362,25 +25362,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>84.27865689207604</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>76.49324754011408</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>384.4135561994924</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>22.89677902941565</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I40" t="n">
         <v>104.7965952039006</v>
@@ -25599,7 +25599,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>129.1132226834443</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>16.92088005945627</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>36.64352739674769</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>42.91454936202524</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>116.3144098339127</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I43" t="n">
         <v>104.7965952039006</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>178.0508199596874</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>239.1397567851957</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>221.3469283095087</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247041</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I46" t="n">
         <v>104.7965952039006</v>
@@ -26073,22 +26073,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>18.50435455269644</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>200.2166741445764</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>485153.5658931129</v>
+        <v>330600.7597974779</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.1879611122</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822866.1879611122</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822866.1879611124</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>99166.69657404804</v>
       </c>
       <c r="D2" t="n">
-        <v>153375.3739746993</v>
+        <v>99917.42429591442</v>
       </c>
       <c r="E2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="F2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="G2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="H2" t="n">
         <v>260075.8859201622</v>
@@ -26340,22 +26340,22 @@
         <v>260075.8859201622</v>
       </c>
       <c r="K2" t="n">
+        <v>260075.8859201622</v>
+      </c>
+      <c r="L2" t="n">
+        <v>260075.8859201622</v>
+      </c>
+      <c r="M2" t="n">
         <v>260075.8859201623</v>
       </c>
-      <c r="L2" t="n">
-        <v>260075.8859201623</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>260075.8859201622</v>
       </c>
-      <c r="N2" t="n">
-        <v>260075.8859201623</v>
-      </c>
       <c r="O2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="P2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201621</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>326899.4975468231</v>
+        <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>445061.6638164769</v>
+        <v>732170.4703829641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47461.0383815111</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>112904.1760744624</v>
+        <v>159636.3024986581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.310193849552888e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>22471.52375672497</v>
       </c>
       <c r="D4" t="n">
-        <v>7145.895421973702</v>
+        <v>19093.49581609735</v>
       </c>
       <c r="E4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="F4" t="n">
         <v>12563.18241499341</v>
@@ -26441,25 +26441,25 @@
         <v>12563.1824149934</v>
       </c>
       <c r="J4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="K4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="L4" t="n">
         <v>12563.1824149934</v>
       </c>
       <c r="M4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="N4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="O4" t="n">
-        <v>12563.18241499339</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="P4" t="n">
-        <v>12563.18241499339</v>
+        <v>12563.18241499341</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161358</v>
+        <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
+        <v>59310.17243984473</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59310.17243984474</v>
+      </c>
+      <c r="G5" t="n">
+        <v>59310.17243984473</v>
+      </c>
+      <c r="H5" t="n">
+        <v>59310.17243984473</v>
+      </c>
+      <c r="I5" t="n">
+        <v>59310.17243984472</v>
+      </c>
+      <c r="J5" t="n">
         <v>59310.17243984471</v>
       </c>
-      <c r="F5" t="n">
-        <v>59310.17243984471</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>59310.17243984472</v>
-      </c>
-      <c r="H5" t="n">
-        <v>59310.17243984472</v>
-      </c>
-      <c r="I5" t="n">
-        <v>59310.17243984473</v>
-      </c>
-      <c r="J5" t="n">
-        <v>59310.17243984473</v>
-      </c>
-      <c r="K5" t="n">
-        <v>59310.17243984473</v>
       </c>
       <c r="L5" t="n">
         <v>59310.17243984473</v>
       </c>
       <c r="M5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984475</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984477</v>
+        <v>59310.17243984471</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202980.4380465433</v>
+        <v>-189756.9998079289</v>
       </c>
       <c r="C6" t="n">
-        <v>23256.65883216037</v>
+        <v>36480.09707077479</v>
       </c>
       <c r="D6" t="n">
-        <v>-249159.782830277</v>
+        <v>17765.34212314055</v>
       </c>
       <c r="E6" t="n">
-        <v>-262086.5954730446</v>
+        <v>-544490.6855898292</v>
       </c>
       <c r="F6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.784793135</v>
       </c>
       <c r="G6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.784793135</v>
       </c>
       <c r="H6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="I6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="J6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="K6" t="n">
-        <v>182975.0683434325</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="L6" t="n">
-        <v>135514.0299619214</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="M6" t="n">
-        <v>70070.89226896992</v>
+        <v>28043.48229447684</v>
       </c>
       <c r="N6" t="n">
-        <v>182975.0683434325</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="O6" t="n">
-        <v>182975.0683434322</v>
+        <v>187679.7847931348</v>
       </c>
       <c r="P6" t="n">
-        <v>182975.0683434325</v>
+        <v>187679.7847931348</v>
       </c>
     </row>
   </sheetData>
@@ -26743,25 +26743,25 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129047</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="J3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="K3" t="n">
         <v>934.0648921175393</v>
@@ -26770,16 +26770,16 @@
         <v>934.0648921175393</v>
       </c>
       <c r="M3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="N3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175397</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175397</v>
+        <v>934.0648921175391</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="H4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="I4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="L4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="M4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000395</v>
+        <v>640.5848321000389</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>313.6899027869105</v>
+        <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>385.5949512046345</v>
+        <v>673.2684996000745</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.0592449337187</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.0592449337187</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.0592449337187</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043121</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470025</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244295</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924582</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590851</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M9" t="n">
-        <v>298.916117797533</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550077</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75513090282037</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620018</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114196</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784861</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647911</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181395</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H11" t="n">
         <v>38.45624955336179</v>
@@ -31767,16 +31767,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N11" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P11" t="n">
         <v>539.9786897190645</v>
@@ -31788,7 +31788,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T11" t="n">
         <v>16.4376645838976</v>
@@ -31837,7 +31837,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31849,16 +31849,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O12" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q12" t="n">
         <v>256.4624964168761</v>
@@ -31916,7 +31916,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31943,7 +31943,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S13" t="n">
         <v>29.35413767523479</v>
@@ -31952,7 +31952,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H14" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J14" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L14" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q14" t="n">
         <v>405.5015080147052</v>
@@ -32025,13 +32025,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T14" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H15" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q15" t="n">
         <v>256.4624964168761</v>
@@ -32104,10 +32104,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U15" t="n">
         <v>0.1321789941675764</v>
@@ -32153,19 +32153,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L16" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N16" t="n">
         <v>257.7559726067959</v>
@@ -32180,16 +32180,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S16" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I17" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J17" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L17" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O17" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q17" t="n">
         <v>405.5015080147052</v>
@@ -32268,7 +32268,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H18" t="n">
         <v>19.40387634380021</v>
@@ -32317,10 +32317,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K18" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M18" t="n">
         <v>509.0653662040589</v>
@@ -32329,7 +32329,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P18" t="n">
         <v>383.6539365378626</v>
@@ -32341,10 +32341,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U18" t="n">
         <v>0.1321789941675764</v>
@@ -32390,19 +32390,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K19" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L19" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N19" t="n">
         <v>257.7559726067959</v>
@@ -32417,16 +32417,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S19" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I20" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J20" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L20" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O20" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q20" t="n">
         <v>405.5015080147052</v>
@@ -32505,7 +32505,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H21" t="n">
         <v>19.40387634380021</v>
@@ -32554,10 +32554,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K21" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M21" t="n">
         <v>509.0653662040589</v>
@@ -32566,7 +32566,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P21" t="n">
         <v>383.6539365378626</v>
@@ -32578,10 +32578,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U21" t="n">
         <v>0.1321789941675764</v>
@@ -32627,19 +32627,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J22" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K22" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L22" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M22" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N22" t="n">
         <v>257.7559726067959</v>
@@ -32654,16 +32654,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S22" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H26" t="n">
         <v>38.45624955336179</v>
@@ -32952,16 +32952,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L26" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M26" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N26" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O26" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P26" t="n">
         <v>539.9786897190645</v>
@@ -32973,7 +32973,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S26" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T26" t="n">
         <v>16.4376645838976</v>
@@ -33022,7 +33022,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I27" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J27" t="n">
         <v>189.8178475575841</v>
@@ -33034,16 +33034,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M27" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N27" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O27" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P27" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q27" t="n">
         <v>256.4624964168761</v>
@@ -33101,7 +33101,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I28" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J28" t="n">
         <v>119.0856174753787</v>
@@ -33128,7 +33128,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R28" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S28" t="n">
         <v>29.35413767523479</v>
@@ -33137,7 +33137,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H35" t="n">
         <v>38.45624955336179</v>
@@ -33663,16 +33663,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L35" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M35" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N35" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O35" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P35" t="n">
         <v>539.9786897190645</v>
@@ -33684,7 +33684,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S35" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T35" t="n">
         <v>16.4376645838976</v>
@@ -33733,7 +33733,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I36" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J36" t="n">
         <v>189.8178475575841</v>
@@ -33745,16 +33745,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M36" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N36" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O36" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P36" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q36" t="n">
         <v>256.4624964168761</v>
@@ -33812,7 +33812,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I37" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J37" t="n">
         <v>119.0856174753787</v>
@@ -33839,7 +33839,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R37" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S37" t="n">
         <v>29.35413767523479</v>
@@ -33848,7 +33848,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H38" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I38" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J38" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K38" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L38" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M38" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N38" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O38" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P38" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q38" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R38" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S38" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T38" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U38" t="n">
         <v>0.3004027793744847</v>
@@ -33967,10 +33967,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H39" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I39" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J39" t="n">
         <v>189.8178475575841</v>
@@ -33979,34 +33979,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L39" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M39" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N39" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O39" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P39" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q39" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R39" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S39" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T39" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I40" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J40" t="n">
         <v>119.0856174753787</v>
@@ -34064,10 +34064,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N40" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O40" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P40" t="n">
         <v>203.7180217169137</v>
@@ -34076,16 +34076,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R40" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S40" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T40" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H41" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I41" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J41" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K41" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L41" t="n">
-        <v>592.5726450767384</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N41" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P41" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q41" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R41" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T41" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H42" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I42" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J42" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K42" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L42" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M42" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O42" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.4624964168762</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R42" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S42" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T42" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H43" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I43" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J43" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K43" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L43" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M43" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N43" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O43" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P43" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q43" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R43" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S43" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T43" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H44" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I44" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767384</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T44" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H45" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J45" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K45" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M45" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.4624964168762</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R45" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S45" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T45" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H46" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J46" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K46" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L46" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M46" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N46" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O46" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P46" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R46" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S46" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09259053886808</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788338</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197547</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504116</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405813</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915996</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065978</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781472</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606291</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755147</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>91.301859448557</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764999</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062402</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400552</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>98.86065188594075</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N11" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P11" t="n">
         <v>308.745693963795</v>
@@ -35433,7 +35433,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.34947739681176</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
-        <v>451.0527332560634</v>
+        <v>355.33095442155</v>
       </c>
       <c r="L12" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N12" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O12" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P12" t="n">
         <v>249.6795291235323</v>
@@ -35512,7 +35512,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R12" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K13" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M13" t="n">
         <v>303.6179906468033</v>
@@ -35582,13 +35582,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P13" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P14" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q14" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>93.3494773968123</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M15" t="n">
-        <v>481.2868411833756</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O15" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R15" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K16" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N16" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L17" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O17" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P17" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q17" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091745</v>
+        <v>93.34947739681186</v>
       </c>
       <c r="K18" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M18" t="n">
         <v>366.9313322820406</v>
@@ -35980,13 +35980,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P18" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K19" t="n">
         <v>173.4247593423491</v>
@@ -36050,7 +36050,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M19" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N19" t="n">
         <v>301.8881449860245</v>
@@ -36123,28 +36123,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L20" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O20" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P20" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q20" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L21" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M21" t="n">
         <v>366.9313322820406</v>
@@ -36217,7 +36217,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P21" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750464</v>
       </c>
       <c r="Q21" t="n">
         <v>116.4807223308546</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K22" t="n">
         <v>173.4247593423491</v>
@@ -36287,7 +36287,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M22" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N22" t="n">
         <v>301.8881449860245</v>
@@ -36439,7 +36439,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378502</v>
@@ -36454,10 +36454,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346379</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K26" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L26" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M26" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N26" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O26" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P26" t="n">
         <v>308.745693963795</v>
@@ -36618,7 +36618,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M27" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N27" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O27" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
         <v>249.6795291235323</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K28" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L28" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M28" t="n">
         <v>303.6179906468033</v>
@@ -36767,13 +36767,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O28" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P28" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378502</v>
@@ -36925,13 +36925,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O30" t="n">
-        <v>335.4246819961231</v>
+        <v>420.36654787987</v>
       </c>
       <c r="P30" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K33" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
@@ -37162,13 +37162,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O33" t="n">
-        <v>335.4246819961231</v>
+        <v>546.4575832202785</v>
       </c>
       <c r="P33" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K35" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L35" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M35" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N35" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O35" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P35" t="n">
         <v>308.745693963795</v>
@@ -37329,7 +37329,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R35" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K36" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N36" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O36" t="n">
-        <v>335.4246819961231</v>
+        <v>521.8736946105084</v>
       </c>
       <c r="P36" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q36" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K37" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L37" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M37" t="n">
         <v>303.6179906468033</v>
@@ -37478,13 +37478,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O37" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P37" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K38" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L38" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M38" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N38" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O38" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P38" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q38" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R38" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K39" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L39" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620064</v>
       </c>
       <c r="M39" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N39" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O39" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R39" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K40" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L40" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M40" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N40" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O40" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P40" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q40" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K41" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M41" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N41" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P41" t="n">
-        <v>308.7456939637952</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K42" t="n">
-        <v>379.9148430313186</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L42" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N42" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O42" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P42" t="n">
-        <v>249.6795291235325</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q42" t="n">
-        <v>326.5580100667038</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K43" t="n">
-        <v>173.4247593423492</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L43" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M43" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N43" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O43" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P43" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K44" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M44" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P44" t="n">
-        <v>308.7456939637952</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091751</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K45" t="n">
-        <v>451.0527332560636</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L45" t="n">
-        <v>562.710793489363</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O45" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235325</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308547</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K46" t="n">
-        <v>173.4247593423492</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L46" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M46" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N46" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P46" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
